--- a/Alibaba_Base_de_Datos_2018.xlsx
+++ b/Alibaba_Base_de_Datos_2018.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB0ED831-9C9B-4B8A-932B-1EF12B6B5C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EECD03E-5632-4C68-A2C1-465E778FD9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="25155" windowHeight="11385" xr2:uid="{888DE1FD-B4ED-446C-9B78-5A95D1663822}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{888DE1FD-B4ED-446C-9B78-5A95D1663822}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$4:$R$4</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -641,10 +644,33 @@
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:R34"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="39" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
@@ -2488,6 +2514,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A4:R4" xr:uid="{B8536948-A35F-41D6-985E-45ED97887DB9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Alibaba_Base_de_Datos_2018.xlsx
+++ b/Alibaba_Base_de_Datos_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EECD03E-5632-4C68-A2C1-465E778FD9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5DF345-31F2-4715-9519-296C9598B6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{888DE1FD-B4ED-446C-9B78-5A95D1663822}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="76">
   <si>
     <t>Sumar</t>
   </si>
@@ -250,6 +250,21 @@
   </si>
   <si>
     <t>COWIN E7 PRO</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Estado_2</t>
+  </si>
+  <si>
+    <t>Proceso</t>
+  </si>
+  <si>
+    <t>Tránsito</t>
+  </si>
+  <si>
+    <t>Entregado</t>
   </si>
 </sst>
 </file>
@@ -641,13 +656,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8536948-A35F-41D6-985E-45ED97887DB9}">
-  <dimension ref="A1:R34"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,9 +685,11 @@
     <col min="16" max="16" width="24" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -697,7 +714,7 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -722,7 +739,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -747,7 +764,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -802,8 +819,14 @@
       <c r="R4" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1000</v>
       </c>
@@ -859,8 +882,12 @@
       <c r="R5" s="1">
         <v>1410</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1000</v>
       </c>
@@ -916,8 +943,12 @@
       <c r="R6" s="1">
         <v>1410</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1000</v>
       </c>
@@ -973,8 +1004,12 @@
       <c r="R7" s="1">
         <v>1410</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1000</v>
       </c>
@@ -1030,8 +1065,12 @@
       <c r="R8" s="1">
         <v>1410</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1001</v>
       </c>
@@ -1087,8 +1126,12 @@
       <c r="R9" s="1">
         <v>1412</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1001</v>
       </c>
@@ -1144,8 +1187,12 @@
       <c r="R10" s="1">
         <v>1412</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1001</v>
       </c>
@@ -1201,8 +1248,12 @@
       <c r="R11" s="1">
         <v>1412</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1001</v>
       </c>
@@ -1258,8 +1309,12 @@
       <c r="R12" s="1">
         <v>1412</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1002</v>
       </c>
@@ -1315,8 +1370,12 @@
       <c r="R13" s="1">
         <v>1413</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1002</v>
       </c>
@@ -1372,8 +1431,12 @@
       <c r="R14" s="1">
         <v>1413</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1002</v>
       </c>
@@ -1429,8 +1492,12 @@
       <c r="R15" s="1">
         <v>1413</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1002</v>
       </c>
@@ -1486,8 +1553,12 @@
       <c r="R16" s="1">
         <v>1413</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1003</v>
       </c>
@@ -1543,8 +1614,12 @@
       <c r="R17" s="1">
         <v>1415</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1003</v>
       </c>
@@ -1600,8 +1675,12 @@
       <c r="R18" s="1">
         <v>1415</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1003</v>
       </c>
@@ -1657,8 +1736,12 @@
       <c r="R19" s="1">
         <v>1415</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1003</v>
       </c>
@@ -1714,8 +1797,12 @@
       <c r="R20" s="1">
         <v>1415</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1004</v>
       </c>
@@ -1771,8 +1858,12 @@
       <c r="R21" s="1">
         <v>1411</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T21" s="1"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1004</v>
       </c>
@@ -1828,8 +1919,12 @@
       <c r="R22" s="1">
         <v>1411</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T22" s="1"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1004</v>
       </c>
@@ -1885,8 +1980,12 @@
       <c r="R23" s="1">
         <v>1411</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="T23" s="1"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1004</v>
       </c>
@@ -1942,8 +2041,12 @@
       <c r="R24" s="1">
         <v>1411</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="T24" s="1"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1004</v>
       </c>
@@ -1999,8 +2102,12 @@
       <c r="R25" s="1">
         <v>1411</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="T25" s="1"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1004</v>
       </c>
@@ -2056,8 +2163,12 @@
       <c r="R26" s="1">
         <v>1411</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="T26" s="1"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1005</v>
       </c>
@@ -2113,8 +2224,12 @@
       <c r="R27" s="1">
         <v>1414</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T27" s="1"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1005</v>
       </c>
@@ -2170,8 +2285,12 @@
       <c r="R28" s="1">
         <v>1414</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T28" s="1"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1005</v>
       </c>
@@ -2227,8 +2346,12 @@
       <c r="R29" s="1">
         <v>1414</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T29" s="1"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1006</v>
       </c>
@@ -2284,8 +2407,12 @@
       <c r="R30" s="1">
         <v>1406</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T30" s="1"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1006</v>
       </c>
@@ -2341,8 +2468,12 @@
       <c r="R31" s="1">
         <v>1406</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T31" s="1"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1006</v>
       </c>
@@ -2398,8 +2529,12 @@
       <c r="R32" s="1">
         <v>1406</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T32" s="1"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1006</v>
       </c>
@@ -2455,8 +2590,12 @@
       <c r="R33" s="1">
         <v>1406</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T33" s="1"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1006</v>
       </c>
@@ -2512,9 +2651,18 @@
       <c r="R34" s="1">
         <v>1406</v>
       </c>
+      <c r="S34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T34" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:R4" xr:uid="{B8536948-A35F-41D6-985E-45ED97887DB9}"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T5:T34" xr:uid="{1254DE36-4EE3-4795-A9C3-A66DC9BF4F70}">
+      <formula1>INDIRECT($P5)</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>